--- a/biology/Zoologie/Géocoucou_véloce/Géocoucou_véloce.xlsx
+++ b/biology/Zoologie/Géocoucou_véloce/Géocoucou_véloce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9ocoucou_v%C3%A9loce</t>
+          <t>Géocoucou_véloce</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geococcyx velox
 Le Géocoucou véloce (Geococcyx velox) est une espèce proche parente du Grand géocoucou (Geococcyx californianus) mais beaucoup moins connue.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9ocoucou_v%C3%A9loce</t>
+          <t>Géocoucou_véloce</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le géocoucou véloce ressemble au grand géocoucou mais est un peu plus petit, a la gorge et la poitrine moins striée et les dessous comparativement plus chamois[1].  La longueur moyenne est de 46 cm (18 po)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le géocoucou véloce ressemble au grand géocoucou mais est un peu plus petit, a la gorge et la poitrine moins striée et les dessous comparativement plus chamois.  La longueur moyenne est de 46 cm (18 po).
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9ocoucou_v%C3%A9loce</t>
+          <t>Géocoucou_véloce</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Géocoucou véloce s’observe dans les basses terres arides jusqu’à 3000 m d’altitude maximum.  Il habite les zones terrains dégagés parsemés de broussailles et de buissons épineux ainsi que les terres cultivées[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Géocoucou véloce s’observe dans les basses terres arides jusqu’à 3000 m d’altitude maximum.  Il habite les zones terrains dégagés parsemés de broussailles et de buissons épineux ainsi que les terres cultivées.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9ocoucou_v%C3%A9loce</t>
+          <t>Géocoucou_véloce</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se nourrit principalement d’insectes, en chassant au sol de manière semblable au Grand géocoucou[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nourrit principalement d’insectes, en chassant au sol de manière semblable au Grand géocoucou.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>G%C3%A9ocoucou_v%C3%A9loce</t>
+          <t>Géocoucou_véloce</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il construit son nid dans un arbre de faible hauteur, un buisson épineux ou un cactus Opuntia.  Les œufs, au nombre de 3 à 4, sont blancs et mesurent 35 x 26 mm[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il construit son nid dans un arbre de faible hauteur, un buisson épineux ou un cactus Opuntia.  Les œufs, au nombre de 3 à 4, sont blancs et mesurent 35 x 26 mm.
 </t>
         </is>
       </c>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>G%C3%A9ocoucou_v%C3%A9loce</t>
+          <t>Géocoucou_véloce</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,9 +656,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Géocoucou véloce est un résident permanent dans l’ouest du Mexique, du Sonora au Chiapas, dans le Yucatán jusqu’au Guatemala, El Salvador, Honduras et le nord-ouest du Nicaragua[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Géocoucou véloce est un résident permanent dans l’ouest du Mexique, du Sonora au Chiapas, dans le Yucatán jusqu’au Guatemala, El Salvador, Honduras et le nord-ouest du Nicaragua.
 </t>
         </is>
       </c>
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>G%C3%A9ocoucou_v%C3%A9loce</t>
+          <t>Géocoucou_véloce</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,9 +689,11 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce Géocoucou ne semble pas être menacé.  Il est relativement commun dans son aire de répartition et son habitat n’est pas particulièrement menacé pour le moment[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce Géocoucou ne semble pas être menacé.  Il est relativement commun dans son aire de répartition et son habitat n’est pas particulièrement menacé pour le moment.
 </t>
         </is>
       </c>
